--- a/feature/update-logo-sas/ig/ValueSet-sas-valueset-typeidentifiant.xlsx
+++ b/feature/update-logo-sas/ig/ValueSet-sas-valueset-typeidentifiant.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T16:32:55+00:00</t>
+    <t>2024-11-14T16:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
